--- a/class_schedules/POLITICS (POLT).xlsx
+++ b/class_schedules/POLITICS (POLT).xlsx
@@ -14,78 +14,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="105">
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>199</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="101">
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>132</t>
   </si>
   <si>
     <t>200</t>
   </si>
   <si>
+    <t>207</t>
+  </si>
+  <si>
     <t>208</t>
   </si>
   <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>267</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>312F</t>
-  </si>
-  <si>
-    <t>312H</t>
-  </si>
-  <si>
-    <t>320F</t>
-  </si>
-  <si>
-    <t>320H</t>
-  </si>
-  <si>
-    <t>341F</t>
-  </si>
-  <si>
-    <t>341H</t>
-  </si>
-  <si>
-    <t>420F</t>
-  </si>
-  <si>
-    <t>420H</t>
-  </si>
-  <si>
-    <t>425F</t>
-  </si>
-  <si>
-    <t>425H</t>
+    <t>210</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>309</t>
+  </si>
+  <si>
+    <t>313</t>
+  </si>
+  <si>
+    <t>326</t>
+  </si>
+  <si>
+    <t>331</t>
+  </si>
+  <si>
+    <t>371</t>
+  </si>
+  <si>
+    <t>403F</t>
+  </si>
+  <si>
+    <t>422F</t>
+  </si>
+  <si>
+    <t>422H</t>
   </si>
   <si>
     <t>995F</t>
@@ -97,178 +85,160 @@
     <t>01</t>
   </si>
   <si>
-    <t>11175</t>
-  </si>
-  <si>
-    <t>7007</t>
-  </si>
-  <si>
-    <t>7191</t>
-  </si>
-  <si>
-    <t>1412</t>
-  </si>
-  <si>
-    <t>1413</t>
-  </si>
-  <si>
-    <t>14616</t>
-  </si>
-  <si>
-    <t>2071</t>
-  </si>
-  <si>
-    <t>14618</t>
-  </si>
-  <si>
-    <t>11932</t>
-  </si>
-  <si>
-    <t>1416</t>
-  </si>
-  <si>
-    <t>14613</t>
-  </si>
-  <si>
-    <t>14672</t>
-  </si>
-  <si>
-    <t>1419</t>
-  </si>
-  <si>
-    <t>14104</t>
-  </si>
-  <si>
-    <t>12606</t>
-  </si>
-  <si>
-    <t>12607</t>
-  </si>
-  <si>
-    <t>12240</t>
-  </si>
-  <si>
-    <t>12239</t>
-  </si>
-  <si>
-    <t>12401</t>
-  </si>
-  <si>
-    <t>12365</t>
-  </si>
-  <si>
-    <t>14273</t>
-  </si>
-  <si>
-    <t>14274</t>
-  </si>
-  <si>
-    <t>14275</t>
-  </si>
-  <si>
-    <t>14276</t>
-  </si>
-  <si>
-    <t>14277</t>
-  </si>
-  <si>
-    <t>14278</t>
+    <t>14730</t>
+  </si>
+  <si>
+    <t>14011</t>
+  </si>
+  <si>
+    <t>1107</t>
+  </si>
+  <si>
+    <t>13550</t>
+  </si>
+  <si>
+    <t>14731</t>
+  </si>
+  <si>
+    <t>14735</t>
+  </si>
+  <si>
+    <t>14087</t>
+  </si>
+  <si>
+    <t>14108</t>
+  </si>
+  <si>
+    <t>14739</t>
+  </si>
+  <si>
+    <t>14740</t>
+  </si>
+  <si>
+    <t>14111</t>
+  </si>
+  <si>
+    <t>14112</t>
+  </si>
+  <si>
+    <t>14833</t>
+  </si>
+  <si>
+    <t>14733</t>
+  </si>
+  <si>
+    <t>14117</t>
+  </si>
+  <si>
+    <t>13554</t>
+  </si>
+  <si>
+    <t>14827</t>
+  </si>
+  <si>
+    <t>11366</t>
+  </si>
+  <si>
+    <t>11307</t>
+  </si>
+  <si>
+    <t>11306</t>
+  </si>
+  <si>
+    <t>11392</t>
+  </si>
+  <si>
+    <t>11379</t>
   </si>
   <si>
     <t>4</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Acting I: Fundamentals</t>
-  </si>
-  <si>
-    <t>Production: Scenery</t>
-  </si>
-  <si>
-    <t>Lighting Technology &amp; Design</t>
-  </si>
-  <si>
-    <t>Production</t>
-  </si>
-  <si>
-    <t>Acting II: Scene Study</t>
-  </si>
-  <si>
-    <t>Directing I</t>
-  </si>
-  <si>
-    <t>Individual or Group</t>
-  </si>
-  <si>
-    <t>Costume Design</t>
-  </si>
-  <si>
-    <t>Arts Management I</t>
-  </si>
-  <si>
-    <t>Foundations of Theater</t>
-  </si>
-  <si>
-    <t>African-American Drama</t>
-  </si>
-  <si>
-    <t>American Musical Theater</t>
-  </si>
-  <si>
-    <t>Rehearsal and</t>
-  </si>
-  <si>
-    <t>Acting III: Shakespeare</t>
-  </si>
-  <si>
-    <t>Stage Management</t>
-  </si>
-  <si>
-    <t>Special Projects -</t>
-  </si>
-  <si>
-    <t>Directing III -</t>
-  </si>
-  <si>
-    <t>Honors -</t>
-  </si>
-  <si>
-    <t>Senior</t>
+    <t>Contemporary Left Politics</t>
+  </si>
+  <si>
+    <t>Intro to Peace and Conflict</t>
+  </si>
+  <si>
+    <t>International Politics</t>
+  </si>
+  <si>
+    <t>Explaining Social Power</t>
+  </si>
+  <si>
+    <t>Mass Politics in a Media Age</t>
+  </si>
+  <si>
+    <t>Social Movements &amp; Policy Proc</t>
+  </si>
+  <si>
+    <t>Environmental Policy</t>
+  </si>
+  <si>
+    <t>Latin American Politics</t>
+  </si>
+  <si>
+    <t>Pol Econ of Devlopment in Asia</t>
+  </si>
+  <si>
+    <t>Polt Economy of Adv Capitalism</t>
+  </si>
+  <si>
+    <t>Lat Amer Past/Pres thru Film</t>
+  </si>
+  <si>
+    <t>Gender, Sexuality &amp; Law</t>
+  </si>
+  <si>
+    <t>Justice</t>
+  </si>
+  <si>
+    <t>Transition to Capitalist China</t>
+  </si>
+  <si>
+    <t>Topics:Democracy &amp; Development</t>
+  </si>
+  <si>
+    <t>Sem: Modernity &amp; Postmodernity</t>
+  </si>
+  <si>
+    <t>Power &amp; American Democracy</t>
+  </si>
+  <si>
+    <t>Senior Honors - Full</t>
+  </si>
+  <si>
+    <t>Proj Electoral Politics - Full</t>
+  </si>
+  <si>
+    <t>Proj Electoral Politics - Half</t>
   </si>
   <si>
     <t>Private Reading -</t>
   </si>
   <si>
+    <t>TR</t>
+  </si>
+  <si>
     <t>MW</t>
   </si>
   <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>Crew</t>
-  </si>
-  <si>
-    <t>Projects</t>
-  </si>
-  <si>
-    <t>Performance</t>
-  </si>
-  <si>
     <t>MWF</t>
   </si>
   <si>
-    <t>Practicum</t>
+    <t>M</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>W</t>
   </si>
   <si>
     <t>Full</t>
@@ -277,58 +247,76 @@
     <t>Half</t>
   </si>
   <si>
-    <t>Project-Full</t>
-  </si>
-  <si>
-    <t>Project-Half</t>
-  </si>
-  <si>
-    <t>0100-0245pm</t>
-  </si>
-  <si>
-    <t>1000-1150am</t>
+    <t>0930-1050am</t>
+  </si>
+  <si>
+    <t>0835-0950am</t>
+  </si>
+  <si>
+    <t>0100-0215pm</t>
+  </si>
+  <si>
+    <t>0130-0245pm</t>
+  </si>
+  <si>
+    <t>1100-1215pm</t>
+  </si>
+  <si>
+    <t>0130-0220pm</t>
+  </si>
+  <si>
+    <t>0230-0345pm</t>
   </si>
   <si>
     <t>0300-0415pm</t>
   </si>
   <si>
+    <t>0700-1000pm</t>
+  </si>
+  <si>
+    <t>0100-0250pm</t>
+  </si>
+  <si>
+    <t>0700-0900pm</t>
+  </si>
+  <si>
+    <t>0230-0420pm</t>
+  </si>
+  <si>
     <t>TBA</t>
   </si>
   <si>
-    <t>0100-0215pm</t>
-  </si>
-  <si>
-    <t>0230-0420pm</t>
-  </si>
-  <si>
-    <t>Wright Matthew</t>
-  </si>
-  <si>
-    <t>Natt Joseph</t>
-  </si>
-  <si>
-    <t>Benjamin Jeremy</t>
-  </si>
-  <si>
-    <t>James Daniel</t>
-  </si>
-  <si>
-    <t>Moser Paul</t>
-  </si>
-  <si>
-    <t>Emeka Justin</t>
-  </si>
-  <si>
-    <t>Jackson-Smith Caro</t>
-  </si>
-  <si>
-    <t>Flaharty Chris</t>
-  </si>
-  <si>
-    <t>Steggall Eric</t>
-  </si>
-  <si>
-    <t>Dorwart Jason</t>
+    <t>Howell Chris</t>
+  </si>
+  <si>
+    <t>Crowley Stephen</t>
+  </si>
+  <si>
+    <t>Sandberg Eve</t>
+  </si>
+  <si>
+    <t>Kruks Sonia</t>
+  </si>
+  <si>
+    <t>Parkin Michael</t>
+  </si>
+  <si>
+    <t>Howat Adam</t>
+  </si>
+  <si>
+    <t>Pathak Swapna</t>
+  </si>
+  <si>
+    <t>Mani Kristina</t>
+  </si>
+  <si>
+    <t>Blecher Marc</t>
+  </si>
+  <si>
+    <t>Hirsch Harry</t>
+  </si>
+  <si>
+    <t>Forrest Michael</t>
   </si>
 </sst>
 </file>
@@ -686,7 +674,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -732,31 +720,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I2" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -767,31 +755,31 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="H3" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" t="s">
         <v>78</v>
       </c>
-      <c r="I3" t="s">
-        <v>90</v>
-      </c>
       <c r="J3" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -802,31 +790,31 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I4" t="s">
         <v>79</v>
       </c>
-      <c r="I4" t="s">
-        <v>91</v>
-      </c>
       <c r="J4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -837,31 +825,31 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="D5" t="s">
-        <v>30</v>
-      </c>
       <c r="E5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="H5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I5" t="s">
         <v>80</v>
       </c>
-      <c r="I5" t="s">
-        <v>92</v>
-      </c>
       <c r="J5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -872,31 +860,31 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -907,31 +895,31 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
         <v>53</v>
       </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>63</v>
-      </c>
       <c r="H7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -942,31 +930,31 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G8" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I8" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -977,31 +965,31 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="H9" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I9" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -1012,31 +1000,31 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" t="s">
         <v>56</v>
       </c>
-      <c r="G10" t="s">
-        <v>66</v>
-      </c>
       <c r="H10" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I10" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1047,31 +1035,31 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1082,31 +1070,31 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J12" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1117,31 +1105,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E13" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G13" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I13" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1152,31 +1140,31 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G14" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="H14" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="I14" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1187,31 +1175,31 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G15" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="H15" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="J15" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1222,31 +1210,31 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H16" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s">
+        <v>87</v>
+      </c>
+      <c r="J16" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" t="s">
         <v>92</v>
-      </c>
-      <c r="J16" t="s">
-        <v>92</v>
-      </c>
-      <c r="K16" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1257,31 +1245,31 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G17" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="H17" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="I17" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1292,31 +1280,31 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="H18" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I18" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J18" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1327,31 +1315,31 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G19" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" t="s">
         <v>73</v>
       </c>
-      <c r="H19" t="s">
-        <v>86</v>
-      </c>
       <c r="I19" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1362,31 +1350,31 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G20" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="H20" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="I20" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1397,31 +1385,31 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
         <v>46</v>
       </c>
-      <c r="E21" t="s">
-        <v>55</v>
-      </c>
       <c r="F21" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="H21" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="I21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1432,31 +1420,31 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G22" t="s">
+        <v>68</v>
+      </c>
+      <c r="H22" t="s">
         <v>75</v>
       </c>
-      <c r="H22" t="s">
-        <v>85</v>
-      </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1467,171 +1455,31 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="G23" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="H23" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F24" t="s">
-        <v>56</v>
-      </c>
-      <c r="G24" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" t="s">
-        <v>87</v>
-      </c>
-      <c r="I24" t="s">
-        <v>92</v>
-      </c>
-      <c r="J24" t="s">
-        <v>92</v>
-      </c>
-      <c r="K24" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" t="s">
-        <v>88</v>
-      </c>
-      <c r="I25" t="s">
-        <v>92</v>
-      </c>
-      <c r="J25" t="s">
-        <v>92</v>
-      </c>
-      <c r="K25" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>51</v>
-      </c>
-      <c r="E26" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" t="s">
-        <v>56</v>
-      </c>
-      <c r="G26" t="s">
-        <v>77</v>
-      </c>
-      <c r="H26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I26" t="s">
-        <v>92</v>
-      </c>
-      <c r="J26" t="s">
-        <v>92</v>
-      </c>
-      <c r="K26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>52</v>
-      </c>
-      <c r="E27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" t="s">
-        <v>77</v>
-      </c>
-      <c r="H27" t="s">
-        <v>86</v>
-      </c>
-      <c r="I27" t="s">
-        <v>92</v>
-      </c>
-      <c r="J27" t="s">
-        <v>92</v>
-      </c>
-      <c r="K27" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
